--- a/brokers_data.xlsx
+++ b/brokers_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -25,43 +25,562 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Gabriella Abdelnour</t>
-  </si>
-  <si>
-    <t>David M Adler</t>
-  </si>
-  <si>
-    <t>Paul Albano</t>
-  </si>
-  <si>
-    <t>Zach Allen</t>
+    <t xml:space="preserve">Shannon Aalai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriella Abdelnour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Abounader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan M Adams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David M Adler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah A Adler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronen Agadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felix Aguirre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Ahdoot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Albano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas J Albert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francine Albert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnneMarie Alexander </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nora Ali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliya Allen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Allen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alyssa Amato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artak Amiryan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim Amzallag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asees Anand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Venezia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Alloin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanna Sharp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caitlyn Santander </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristina Huegel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andi Goeke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crysta Vickers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Rodriguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren Devine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Turner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Buckwalter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DaQuan Baker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Schwarz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad Ackerman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie Kocik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaylee MacKnight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenniffer Diaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasmine Jordan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avi James </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denise Ivanoff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen Belcamino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadas Brown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josiah Hyatt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy Garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armond Adams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandy S. Baca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cole Gimbel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dacia Wyatt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika Reyes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glenetta Gilcrest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Tamayo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Friedman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Bautista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Nicholson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramzi Chahal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dean Spillman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandy Navas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren Rapoza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorden Drone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesly Licyr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie Espinal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff Adler </t>
+  </si>
+  <si>
+    <t>saalai@corcoran.com</t>
   </si>
   <si>
     <t>gabdelnour@corcoran.com</t>
   </si>
   <si>
+    <t>roger.abounader@corcoran.com</t>
+  </si>
+  <si>
+    <t>joa@corcoran.com</t>
+  </si>
+  <si>
     <t>david.adler@corcoran.com</t>
   </si>
   <si>
+    <t>saadler@corcoran.com</t>
+  </si>
+  <si>
+    <t>ragadi@corcoran.com</t>
+  </si>
+  <si>
+    <t>felix.aguirre@corcoran.com</t>
+  </si>
+  <si>
+    <t>monica.ahdoot@corcoran.com</t>
+  </si>
+  <si>
     <t>pha@corcoran.com</t>
   </si>
   <si>
+    <t>dja@corcoran.com</t>
+  </si>
+  <si>
+    <t>falbert@corcoran.com</t>
+  </si>
+  <si>
+    <t>annemarie.alexander@corcoran.com</t>
+  </si>
+  <si>
+    <t>nora.ali@corcoran.com</t>
+  </si>
+  <si>
+    <t>aliya.allen@corcoran.com</t>
+  </si>
+  <si>
     <t>zach.allen@corcoran.com</t>
   </si>
   <si>
-    <t>(305) 924-5080</t>
-  </si>
-  <si>
-    <t>(917) 520-2786</t>
-  </si>
-  <si>
-    <t>(917) 664-0836</t>
-  </si>
-  <si>
-    <t>(917) 847-6968</t>
+    <t>alyssa.amato@corcoran.com</t>
+  </si>
+  <si>
+    <t>aamiryan@corcoran.com</t>
+  </si>
+  <si>
+    <t>kim.amzallag@corcoran.com</t>
+  </si>
+  <si>
+    <t>asees.anand@corcoran.com</t>
+  </si>
+  <si>
+    <t>mary.venezia@corcoran.com</t>
+  </si>
+  <si>
+    <t>maria.alloin@corcoran.com</t>
+  </si>
+  <si>
+    <t>shanna.sharp@corcoran.com</t>
+  </si>
+  <si>
+    <t>caitlyn.santander@corcoran.com</t>
+  </si>
+  <si>
+    <t>kristina.huegel@corcoran.com</t>
+  </si>
+  <si>
+    <t>andi.goeke@corcoran.com</t>
+  </si>
+  <si>
+    <t>crysta.vickers@corcoran.com</t>
+  </si>
+  <si>
+    <t>jose.rodriguez@corcoran.com</t>
+  </si>
+  <si>
+    <t>lauren.devine@corcoran.com</t>
+  </si>
+  <si>
+    <t>taylor.turner@corcoran.com</t>
+  </si>
+  <si>
+    <t>robert.buckwalter@corcoran.com</t>
+  </si>
+  <si>
+    <t>daquan.baker@corcoran.com</t>
+  </si>
+  <si>
+    <t>rachel.schwarz@corcoran.com</t>
+  </si>
+  <si>
+    <t>chad.ackerman@corcoran.com</t>
+  </si>
+  <si>
+    <t>katie.kocik@corcoran.com</t>
+  </si>
+  <si>
+    <t>kaylee.macknight@corcoran.com</t>
+  </si>
+  <si>
+    <t>jenniffer.diaz@corcoran.com</t>
+  </si>
+  <si>
+    <t>jasmine.jordan@corcoran.com</t>
+  </si>
+  <si>
+    <t>avi.james@corcoran.com</t>
+  </si>
+  <si>
+    <t>denise.ivanoff@corcoran.com</t>
+  </si>
+  <si>
+    <t>stephen.belcamino@corcoran.com</t>
+  </si>
+  <si>
+    <t>hadas.brown@corcoran.com</t>
+  </si>
+  <si>
+    <t>josiah.hyatt@corcoran.com</t>
+  </si>
+  <si>
+    <t>jeremy.garcia@corcoran.com</t>
+  </si>
+  <si>
+    <t>armond.adams@corcoran.com</t>
+  </si>
+  <si>
+    <t>brandy.baca@corcoran.com</t>
+  </si>
+  <si>
+    <t>chris.silva@corcoran.com</t>
+  </si>
+  <si>
+    <t>cole.gimbel@corcoran.com</t>
+  </si>
+  <si>
+    <t>dacia.wyatt@corcoran.com</t>
+  </si>
+  <si>
+    <t>erika.reyes@corcoran.com</t>
+  </si>
+  <si>
+    <t>glenetta.gilcrest@corcoran.com</t>
+  </si>
+  <si>
+    <t>matthew.tamayo@corcoran.com</t>
+  </si>
+  <si>
+    <t>mike.friedman@corcoran.com</t>
+  </si>
+  <si>
+    <t>steven.bautista@corcoran.com</t>
+  </si>
+  <si>
+    <t>tim.nicholson@corcoran.com</t>
+  </si>
+  <si>
+    <t>ramzi.chahal@corcoran.com</t>
+  </si>
+  <si>
+    <t>dean.spillman@corcoran.com</t>
+  </si>
+  <si>
+    <t>sandy.navas@corcoran.com</t>
+  </si>
+  <si>
+    <t>lauren.rapoza@corcoran.com</t>
+  </si>
+  <si>
+    <t>jorden.drone@corcoran.com</t>
+  </si>
+  <si>
+    <t>lesly.licyr@corcoran.com</t>
+  </si>
+  <si>
+    <t>me@corcoran.com</t>
+  </si>
+  <si>
+    <t>ja@corcoran.com</t>
+  </si>
+  <si>
+    <t>(917) 405-0254</t>
+  </si>
+  <si>
+    <t>+13059245080</t>
+  </si>
+  <si>
+    <t>(917) 624-3160</t>
+  </si>
+  <si>
+    <t>Download vCard</t>
+  </si>
+  <si>
+    <t>+19175202786</t>
+  </si>
+  <si>
+    <t>(917) 817-7783</t>
+  </si>
+  <si>
+    <t>(516) 376-2806</t>
+  </si>
+  <si>
+    <t>(347) 855-0167</t>
+  </si>
+  <si>
+    <t>(516) 241-1474</t>
+  </si>
+  <si>
+    <t>+19176640836</t>
+  </si>
+  <si>
+    <t>(917) 744-8820</t>
+  </si>
+  <si>
+    <t>(917) 345-0438</t>
+  </si>
+  <si>
+    <t>(917) 566-3377</t>
+  </si>
+  <si>
+    <t>(914) 746-4296</t>
+  </si>
+  <si>
+    <t>+19178476968</t>
+  </si>
+  <si>
+    <t>(516) 768-6620</t>
+  </si>
+  <si>
+    <t>(646) 207-7816</t>
+  </si>
+  <si>
+    <t>(917) 318-5725</t>
+  </si>
+  <si>
+    <t>(818) 219-0450</t>
+  </si>
+  <si>
+    <t>(917) 742-9557</t>
+  </si>
+  <si>
+    <t>(212) 729-8730</t>
+  </si>
+  <si>
+    <t>(917) 655-8771</t>
+  </si>
+  <si>
+    <t>(347) 720-9178</t>
+  </si>
+  <si>
+    <t>(813) 817-1954</t>
+  </si>
+  <si>
+    <t>(408) 402-2703</t>
+  </si>
+  <si>
+    <t>(321) 947-8551</t>
+  </si>
+  <si>
+    <t>(914) 482-3880</t>
+  </si>
+  <si>
+    <t>(480) 204-2531</t>
+  </si>
+  <si>
+    <t>(334) 430-7120</t>
+  </si>
+  <si>
+    <t>(347) 583-0790</t>
+  </si>
+  <si>
+    <t>(917) 383-5799</t>
+  </si>
+  <si>
+    <t>(513) 543-3056</t>
+  </si>
+  <si>
+    <t>(419) 350-4879</t>
+  </si>
+  <si>
+    <t>(216) 536-8562</t>
+  </si>
+  <si>
+    <t>(205) 253-4006</t>
+  </si>
+  <si>
+    <t>(646) 717-2628</t>
+  </si>
+  <si>
+    <t>(646) 409-5581</t>
+  </si>
+  <si>
+    <t>(801) 860-0731</t>
+  </si>
+  <si>
+    <t>(917) 727-7514</t>
+  </si>
+  <si>
+    <t>(321) 662-9841</t>
+  </si>
+  <si>
+    <t>(914) 523-8999</t>
+  </si>
+  <si>
+    <t>(212) 498-8890</t>
+  </si>
+  <si>
+    <t>(646) 579-6314</t>
+  </si>
+  <si>
+    <t>(216) 337-8487</t>
+  </si>
+  <si>
+    <t>(917) 862-8211</t>
+  </si>
+  <si>
+    <t>(347) 367-2547</t>
+  </si>
+  <si>
+    <t>(347) 523-3794</t>
+  </si>
+  <si>
+    <t>(646) 847-8725</t>
+  </si>
+  <si>
+    <t>(914) 433-4676</t>
+  </si>
+  <si>
+    <t>(518) 253-0397</t>
+  </si>
+  <si>
+    <t>(917) 771-0961</t>
+  </si>
+  <si>
+    <t>(201) 981-3240</t>
+  </si>
+  <si>
+    <t>(917) 468-8575</t>
+  </si>
+  <si>
+    <t>(347) 302-4625</t>
+  </si>
+  <si>
+    <t>(347) 776-7024</t>
+  </si>
+  <si>
+    <t>(917) 922-2539</t>
+  </si>
+  <si>
+    <t>(757) 678-2818</t>
+  </si>
+  <si>
+    <t>(347) 646-0092</t>
+  </si>
+  <si>
+    <t>(718) 772-2400</t>
+  </si>
+  <si>
+    <t>(917) 968-5134</t>
   </si>
 </sst>
 </file>
@@ -419,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +960,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -452,252 +971,681 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
